--- a/STASTICS/ASSIGNMENTS/data_sales-WORKED.xlsx
+++ b/STASTICS/ASSIGNMENTS/data_sales-WORKED.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIMAL\Documents\GitHub\Inceptez-Batch-13\STASTICS\ASSIGNMENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet6" sheetId="11" r:id="rId1"/>
-    <sheet name="exe-1" sheetId="1" r:id="rId2"/>
-    <sheet name="EXE-1.1" sheetId="5" r:id="rId3"/>
-    <sheet name="EXE-PLYR-SLCTN" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId7"/>
-    <sheet name="percentile" sheetId="6" r:id="rId8"/>
+    <sheet name="exe-1" sheetId="1" r:id="rId1"/>
+    <sheet name="EXE-1.1" sheetId="5" r:id="rId2"/>
+    <sheet name="EXE-PLYR-SLCTN" sheetId="2" r:id="rId3"/>
+    <sheet name="BOX-PLOT" sheetId="6" r:id="rId4"/>
+    <sheet name="HISTOGRAM" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'exe-1'!$K$1:$K$201</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">'exe-1'!$S$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'exe-1'!$K$1:$K$201</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'exe-1'!$S$12</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="25" r:id="rId6"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -258,39 +263,6 @@
     <t>min</t>
   </si>
   <si>
-    <t>quartile.inc</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>mean range</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>Bin</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>HISTOGRAM</t>
-  </si>
-  <si>
-    <t>percentile.inc</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -302,17 +274,92 @@
   <si>
     <t>COVARIANCE</t>
   </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>STD_DEV</t>
+  </si>
+  <si>
+    <t>85TH PERCENTILE</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>3220-3319</t>
+  </si>
+  <si>
+    <t>3320-3419</t>
+  </si>
+  <si>
+    <t>3420-3519</t>
+  </si>
+  <si>
+    <t>3520-3619</t>
+  </si>
+  <si>
+    <t>3620-3719</t>
+  </si>
+  <si>
+    <t>3720-3819</t>
+  </si>
+  <si>
+    <t>SCORE-CNT</t>
+  </si>
+  <si>
+    <t>SCORE-CNT-DUMMY</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>MEMBERS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,17 +546,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,7 +564,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -521,9 +574,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -549,6 +602,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,13 +632,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -601,8 +663,19 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -618,9 +691,11 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'exe-1'!$M$3:$M$8</c:f>
@@ -675,32 +750,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154128384"/>
-        <c:axId val="154129920"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-271221488"/>
+        <c:axId val="-271223120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154128384"/>
+        <c:axId val="-271221488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154129920"/>
+        <c:crossAx val="-271223120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154129920"/>
+        <c:axId val="-271223120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154128384"/>
+        <c:crossAx val="-271221488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -717,8 +809,11 @@
           <c:h val="0.12003072979033826"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -730,16 +825,28 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -754,6 +861,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'exe-1'!$S$13:$S$18</c:f>
@@ -808,41 +916,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154153728"/>
-        <c:axId val="154155264"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-271220400"/>
+        <c:axId val="-271220944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154153728"/>
+        <c:axId val="-271220400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154155264"/>
+        <c:crossAx val="-271220944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154155264"/>
+        <c:axId val="-271220944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154153728"/>
+        <c:crossAx val="-271220400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -854,8 +981,19 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -871,6 +1009,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -885,6 +1024,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EXE-1.1'!$R$5:$R$10</c:f>
@@ -953,6 +1093,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'EXE-1.1'!$R$5:$R$10</c:f>
@@ -1007,40 +1148,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159005696"/>
-        <c:axId val="159015680"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-271224752"/>
+        <c:axId val="-271215504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159005696"/>
+        <c:axId val="-271224752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159015680"/>
+        <c:crossAx val="-271215504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159015680"/>
+        <c:axId val="-271215504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159005696"/>
+        <c:crossAx val="-271224752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1052,15 +1213,27 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1114,43 +1287,62 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="168834560"/>
-        <c:axId val="168836096"/>
+        <c:smooth val="0"/>
+        <c:axId val="-271213872"/>
+        <c:axId val="-271211696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168834560"/>
+        <c:axId val="-271213872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168836096"/>
+        <c:crossAx val="-271211696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168836096"/>
+        <c:axId val="-271211696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168834560"/>
+        <c:crossAx val="-271213872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1162,15 +1354,27 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1224,43 +1428,62 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="168852096"/>
-        <c:axId val="168870272"/>
+        <c:smooth val="0"/>
+        <c:axId val="-271225296"/>
+        <c:axId val="-268865136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168852096"/>
+        <c:axId val="-271225296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168870272"/>
+        <c:crossAx val="-268865136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168870272"/>
+        <c:axId val="-268865136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168852096"/>
+        <c:crossAx val="-271225296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1272,15 +1495,27 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1337,43 +1572,62 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="168886272"/>
-        <c:axId val="168887808"/>
+        <c:smooth val="0"/>
+        <c:axId val="-268857520"/>
+        <c:axId val="-268861872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168886272"/>
+        <c:axId val="-268857520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168887808"/>
+        <c:crossAx val="-268861872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168887808"/>
+        <c:axId val="-268861872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168886272"/>
+        <c:crossAx val="-268857520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1381,6 +1635,1931 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data_sales-WORKED.xlsx]BOX-PLOT!PivotTable2</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.453349066383481E-2"/>
+          <c:y val="0.17183981135865989"/>
+          <c:w val="0.68470806543650975"/>
+          <c:h val="0.58821835657134514"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BOX-PLOT'!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCORE-CNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BOX-PLOT'!$J$5:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3220-3319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3320-3419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3420-3519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3520-3619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3620-3719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3720-3819</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BOX-PLOT'!$K$5:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BOX-PLOT'!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCORE-CNT-DUMMY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BOX-PLOT'!$J$5:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3220-3319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3320-3419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3420-3519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3520-3619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3620-3719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3720-3819</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BOX-PLOT'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-115966224"/>
+        <c:axId val="-115963504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-115966224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-115963504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-115963504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-115966224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4285322962792804E-2"/>
+          <c:y val="0.18045423490518364"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HISTOGRAM!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COUNT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$D$4:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3320-3419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3420-3519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3520-3619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3620-3719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3720-3819</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="-40915568"/>
+        <c:axId val="-40918288"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HISTOGRAM!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEMBERS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$D$4:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3320-3419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3420-3519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3520-3619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3620-3719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3720-3819</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-40915568"/>
+        <c:axId val="-40918288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-40915568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-40918288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-40918288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-40915568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1740,6 +3919,339 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350585</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1344706</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="VIMAL" refreshedDate="43894.948499305552" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="16">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:B17" sheet="BOX-PLOT"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="player scores" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3220" maxValue="3730" count="11">
+        <n v="3310"/>
+        <n v="3355"/>
+        <n v="3450"/>
+        <n v="3480"/>
+        <n v="3490"/>
+        <n v="3520"/>
+        <n v="3540"/>
+        <n v="3550"/>
+        <n v="3650"/>
+        <n v="3730"/>
+        <n v="3220"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr startNum="3220" endNum="3730" groupInterval="100"/>
+        <groupItems count="8">
+          <s v="&lt;3220"/>
+          <s v="3220-3319"/>
+          <s v="3320-3419"/>
+          <s v="3420-3519"/>
+          <s v="3520-3619"/>
+          <s v="3620-3719"/>
+          <s v="3720-3819"/>
+          <s v="&gt;3820"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="J3:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="SCORE-CNT" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="SCORE-CNT-DUMMY" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="22">
+  <location ref="A1:B9" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="SCORE-CNT" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2029,74 +4541,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="36">
-        <f>VARP('exe-1'!$R$60:$R$68)</f>
-        <v>4.3950617283950617</v>
-      </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="37">
-        <v>6.6790123456790109</v>
-      </c>
-      <c r="C3" s="37">
-        <f>VARP('exe-1'!$S$60:$S$68)</f>
-        <v>240.69135802469137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="63">
+    <row r="1" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +4597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="57.75">
+    <row r="2" spans="1:22" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2179,7 +4645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2230,7 +4696,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2281,7 +4747,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2332,7 +4798,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2383,7 +4849,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2434,7 +4900,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2485,7 +4951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2530,7 +4996,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2565,15 +5031,15 @@
         <f t="shared" si="0"/>
         <v>20-30</v>
       </c>
-      <c r="R10" s="30" t="s">
+      <c r="R10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2609,7 +5075,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="57.75">
+    <row r="12" spans="1:22" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2663,7 +5129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2719,7 +5185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2775,7 +5241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2831,7 +5297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2887,7 +5353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2943,7 +5409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2999,7 +5465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3048,7 +5514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3096,16 +5562,16 @@
       <c r="Q20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V20" s="30" t="s">
+      <c r="V20" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
       <c r="AA20" s="13"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3154,7 +5620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="43.5">
+    <row r="22" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3204,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3254,7 +5720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3301,7 +5767,7 @@
       </c>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3348,7 +5814,7 @@
       </c>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3395,7 +5861,7 @@
       </c>
       <c r="T26" s="15"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3442,7 +5908,7 @@
       </c>
       <c r="T27" s="15"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3489,7 +5955,7 @@
       </c>
       <c r="T28" s="15"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3532,7 +5998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3575,7 +6041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3618,7 +6084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3661,7 +6127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3704,7 +6170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3747,7 +6213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3790,7 +6256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3833,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3876,7 +6342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3919,7 +6385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3962,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4005,7 +6471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4048,7 +6514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4091,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4134,7 +6600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4177,7 +6643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4220,7 +6686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4263,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4306,7 +6772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4349,7 +6815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4392,7 +6858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4435,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4478,7 +6944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4521,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4564,7 +7030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4607,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4650,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4693,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4736,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4772,7 +7238,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="31.5">
+    <row r="59" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4814,7 +7280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4856,7 +7322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4898,7 +7364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4940,7 +7406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4982,7 +7448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5024,7 +7490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5066,7 +7532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5108,7 +7574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5150,7 +7616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5192,7 +7658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5228,7 +7694,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.75" thickBot="1">
+    <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5264,7 +7730,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5299,15 +7765,15 @@
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="T71" s="38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="R71" s="32"/>
+      <c r="S71" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="T71" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5343,18 +7809,18 @@
         <v>60-70</v>
       </c>
       <c r="P72" t="s">
-        <v>86</v>
-      </c>
-      <c r="R72" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="S72" s="36">
+        <v>75</v>
+      </c>
+      <c r="R72" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="S72" s="30">
         <f>VARP('exe-1'!$R$60:$R$68)</f>
         <v>4.3950617283950617</v>
       </c>
-      <c r="T72" s="36"/>
-    </row>
-    <row r="73" spans="1:20" ht="15.75" thickBot="1">
+      <c r="T72" s="30"/>
+    </row>
+    <row r="73" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5389,18 +7855,18 @@
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="R73" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="S73" s="37">
+      <c r="R73" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="S73" s="31">
         <v>6.6790123456790109</v>
       </c>
-      <c r="T73" s="37">
+      <c r="T73" s="31">
         <f>VARP('exe-1'!$S$60:$S$68)</f>
         <v>240.69135802469137</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5436,7 +7902,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5472,7 +7938,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5508,7 +7974,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5544,7 +8010,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5580,7 +8046,7 @@
         <v>10-20</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5616,7 +8082,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5652,7 +8118,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5688,7 +8154,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5724,7 +8190,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5760,7 +8226,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5796,7 +8262,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5832,7 +8298,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5868,7 +8334,7 @@
         <v>10-20</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5904,7 +8370,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5940,7 +8406,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -5976,7 +8442,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6012,7 +8478,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6048,7 +8514,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6084,7 +8550,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6120,7 +8586,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6156,7 +8622,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6192,7 +8658,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6228,7 +8694,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6264,7 +8730,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6300,7 +8766,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6336,7 +8802,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -6372,7 +8838,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -6408,7 +8874,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6444,7 +8910,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -6480,7 +8946,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -6516,7 +8982,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -6552,7 +9018,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -6588,7 +9054,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -6624,7 +9090,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -6660,7 +9126,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -6696,7 +9162,7 @@
         <v>10-20</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -6732,7 +9198,7 @@
         <v>10-20</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -6768,7 +9234,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -6804,7 +9270,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -6840,7 +9306,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -6876,7 +9342,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -6912,7 +9378,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -6948,7 +9414,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6984,7 +9450,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7020,7 +9486,7 @@
         <v>10-20</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7056,7 +9522,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7092,7 +9558,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7128,7 +9594,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7164,7 +9630,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7200,7 +9666,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7236,7 +9702,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7272,7 +9738,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7308,7 +9774,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7344,7 +9810,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7380,7 +9846,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -7416,7 +9882,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -7452,7 +9918,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -7488,7 +9954,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -7524,7 +9990,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -7560,7 +10026,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -7596,7 +10062,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -7632,7 +10098,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -7668,7 +10134,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -7704,7 +10170,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -7740,7 +10206,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -7776,7 +10242,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -7812,7 +10278,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -7848,7 +10314,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -7884,7 +10350,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7920,7 +10386,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7956,7 +10422,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7992,7 +10458,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8028,7 +10494,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8064,7 +10530,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8100,7 +10566,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8136,7 +10602,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8172,7 +10638,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8208,7 +10674,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -8244,7 +10710,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -8280,7 +10746,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8316,7 +10782,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8352,7 +10818,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8388,7 +10854,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8424,7 +10890,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8460,7 +10926,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8496,7 +10962,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8532,7 +10998,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8568,7 +11034,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8604,7 +11070,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8640,7 +11106,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8676,7 +11142,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8712,7 +11178,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8748,7 +11214,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8784,7 +11250,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -8820,7 +11286,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8856,7 +11322,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8892,7 +11358,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8928,7 +11394,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8964,7 +11430,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9000,7 +11466,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9036,7 +11502,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9072,7 +11538,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9108,7 +11574,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9144,7 +11610,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9180,7 +11646,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9216,7 +11682,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9252,7 +11718,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9288,7 +11754,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9324,7 +11790,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9360,7 +11826,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9396,7 +11862,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9432,7 +11898,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9468,7 +11934,7 @@
         <v>10-20</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9504,7 +11970,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9540,7 +12006,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9576,7 +12042,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9612,7 +12078,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9648,7 +12114,7 @@
         <v>10-20</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9684,7 +12150,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9720,7 +12186,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9756,7 +12222,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9792,7 +12258,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9828,7 +12294,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9864,7 +12330,7 @@
         <v>40-50</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9900,7 +12366,7 @@
         <v>20-30</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9936,7 +12402,7 @@
         <v>30-40</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9972,7 +12438,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -10019,16 +12485,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="H1:U201"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="17.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="21"/>
@@ -10041,7 +12507,7 @@
     <col min="20" max="20" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:20" ht="15.75">
+    <row r="1" spans="8:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -10070,7 +12536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="8:20">
+    <row r="2" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10103,7 +12569,7 @@
       </c>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="8:20">
+    <row r="3" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
@@ -10135,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="8:20">
+    <row r="4" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
@@ -10176,7 +12642,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="8:20">
+    <row r="5" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
@@ -10219,7 +12685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="8:20">
+    <row r="6" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
@@ -10262,7 +12728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="8:20">
+    <row r="7" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -10305,7 +12771,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="8:20">
+    <row r="8" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
@@ -10348,7 +12814,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="8:20">
+    <row r="9" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
@@ -10391,7 +12857,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="8:20">
+    <row r="10" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
@@ -10434,7 +12900,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="8:20">
+    <row r="11" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
@@ -10466,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="8:20">
+    <row r="12" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
         <v>3</v>
       </c>
@@ -10498,7 +12964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="8:20">
+    <row r="13" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
@@ -10530,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="8:20">
+    <row r="14" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
@@ -10562,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="8:20">
+    <row r="15" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10594,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="8:20">
+    <row r="16" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
@@ -10626,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:21">
+    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
         <v>3</v>
       </c>
@@ -10658,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:21">
+    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
@@ -10690,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:21">
+    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
@@ -10722,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="8:21">
+    <row r="20" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
@@ -10754,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:21">
+    <row r="21" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H21" s="2" t="s">
         <v>3</v>
       </c>
@@ -10786,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:21">
+    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
@@ -10817,15 +13283,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="31" t="s">
+      <c r="Q22" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-    </row>
-    <row r="23" spans="8:21">
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+    </row>
+    <row r="23" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
         <v>3</v>
       </c>
@@ -10856,13 +13322,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-    </row>
-    <row r="24" spans="8:21">
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+    </row>
+    <row r="24" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
         <v>3</v>
       </c>
@@ -10894,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:21">
+    <row r="25" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
         <v>3</v>
       </c>
@@ -10926,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="8:21">
+    <row r="26" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
@@ -10958,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:21">
+    <row r="27" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
@@ -10990,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="8:21">
+    <row r="28" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
@@ -11022,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="8:21">
+    <row r="29" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
@@ -11054,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="8:21">
+    <row r="30" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
@@ -11086,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="8:21">
+    <row r="31" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
@@ -11118,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="8:21">
+    <row r="32" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
@@ -11150,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="8:16">
+    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
@@ -11182,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:16">
+    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
@@ -11214,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="8:16">
+    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H35" s="2" t="s">
         <v>3</v>
       </c>
@@ -11246,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:16">
+    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H36" s="2" t="s">
         <v>3</v>
       </c>
@@ -11278,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="8:16">
+    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H37" s="2" t="s">
         <v>3</v>
       </c>
@@ -11310,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="8:16">
+    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H38" s="2" t="s">
         <v>14</v>
       </c>
@@ -11342,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="8:16">
+    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H39" s="2" t="s">
         <v>14</v>
       </c>
@@ -11374,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="8:16">
+    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H40" s="2" t="s">
         <v>3</v>
       </c>
@@ -11406,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:16">
+    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H41" s="2" t="s">
         <v>3</v>
       </c>
@@ -11438,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="8:16">
+    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H42" s="2" t="s">
         <v>14</v>
       </c>
@@ -11470,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="8:16">
+    <row r="43" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H43" s="2" t="s">
         <v>14</v>
       </c>
@@ -11502,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="8:16">
+    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H44" s="2" t="s">
         <v>14</v>
       </c>
@@ -11534,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:16">
+    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H45" s="2" t="s">
         <v>3</v>
       </c>
@@ -11566,7 +14032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="8:16">
+    <row r="46" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H46" s="2" t="s">
         <v>14</v>
       </c>
@@ -11598,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="8:16">
+    <row r="47" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H47" s="2" t="s">
         <v>3</v>
       </c>
@@ -11630,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="8:16">
+    <row r="48" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H48" s="2" t="s">
         <v>3</v>
       </c>
@@ -11662,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="8:16">
+    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H49" s="2" t="s">
         <v>14</v>
       </c>
@@ -11694,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="8:16">
+    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H50" s="2" t="s">
         <v>14</v>
       </c>
@@ -11726,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="8:16">
+    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H51" s="2" t="s">
         <v>3</v>
       </c>
@@ -11758,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:16">
+    <row r="52" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H52" s="2" t="s">
         <v>14</v>
       </c>
@@ -11790,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="8:16">
+    <row r="53" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H53" s="2" t="s">
         <v>3</v>
       </c>
@@ -11822,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="8:16">
+    <row r="54" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H54" s="2" t="s">
         <v>14</v>
       </c>
@@ -11854,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="8:16">
+    <row r="55" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H55" s="2" t="s">
         <v>14</v>
       </c>
@@ -11886,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="8:16">
+    <row r="56" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H56" s="2" t="s">
         <v>14</v>
       </c>
@@ -11918,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="8:16">
+    <row r="57" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H57" s="2" t="s">
         <v>14</v>
       </c>
@@ -11950,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="8:16">
+    <row r="58" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H58" s="2" t="s">
         <v>14</v>
       </c>
@@ -11982,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="8:16">
+    <row r="59" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H59" s="2" t="s">
         <v>3</v>
       </c>
@@ -12014,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="8:16">
+    <row r="60" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H60" s="2" t="s">
         <v>14</v>
       </c>
@@ -12046,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="8:16">
+    <row r="61" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H61" s="2" t="s">
         <v>14</v>
       </c>
@@ -12078,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="8:16">
+    <row r="62" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H62" s="2" t="s">
         <v>14</v>
       </c>
@@ -12110,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="8:16">
+    <row r="63" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H63" s="2" t="s">
         <v>3</v>
       </c>
@@ -12142,7 +14608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="8:16">
+    <row r="64" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H64" s="2" t="s">
         <v>3</v>
       </c>
@@ -12174,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="8:16">
+    <row r="65" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H65" s="2" t="s">
         <v>14</v>
       </c>
@@ -12206,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="8:16">
+    <row r="66" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H66" s="2" t="s">
         <v>3</v>
       </c>
@@ -12238,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="8:16">
+    <row r="67" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H67" s="2" t="s">
         <v>14</v>
       </c>
@@ -12270,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="8:16">
+    <row r="68" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H68" s="2" t="s">
         <v>14</v>
       </c>
@@ -12302,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="8:16">
+    <row r="69" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H69" s="2" t="s">
         <v>14</v>
       </c>
@@ -12334,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="8:16">
+    <row r="70" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H70" s="2" t="s">
         <v>14</v>
       </c>
@@ -12366,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="8:16">
+    <row r="71" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H71" s="2" t="s">
         <v>14</v>
       </c>
@@ -12398,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="8:16">
+    <row r="72" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H72" s="2" t="s">
         <v>14</v>
       </c>
@@ -12430,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="8:16">
+    <row r="73" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H73" s="2" t="s">
         <v>14</v>
       </c>
@@ -12462,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="8:16">
+    <row r="74" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H74" s="2" t="s">
         <v>14</v>
       </c>
@@ -12494,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="8:16">
+    <row r="75" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H75" s="2" t="s">
         <v>14</v>
       </c>
@@ -12526,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="8:16">
+    <row r="76" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H76" s="2" t="s">
         <v>3</v>
       </c>
@@ -12558,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="8:16">
+    <row r="77" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H77" s="2" t="s">
         <v>14</v>
       </c>
@@ -12590,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="8:16">
+    <row r="78" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H78" s="2" t="s">
         <v>14</v>
       </c>
@@ -12622,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="8:16">
+    <row r="79" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H79" s="2" t="s">
         <v>3</v>
       </c>
@@ -12654,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="8:16">
+    <row r="80" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -12686,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="8:16">
+    <row r="81" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H81" s="2" t="s">
         <v>14</v>
       </c>
@@ -12718,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="8:16">
+    <row r="82" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H82" s="2" t="s">
         <v>14</v>
       </c>
@@ -12750,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="8:16">
+    <row r="83" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H83" s="2" t="s">
         <v>3</v>
       </c>
@@ -12782,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="8:16">
+    <row r="84" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H84" s="2" t="s">
         <v>14</v>
       </c>
@@ -12814,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="8:16">
+    <row r="85" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H85" s="2" t="s">
         <v>3</v>
       </c>
@@ -12846,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="8:16">
+    <row r="86" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H86" s="2" t="s">
         <v>14</v>
       </c>
@@ -12878,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="8:16">
+    <row r="87" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H87" s="2" t="s">
         <v>14</v>
       </c>
@@ -12910,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="8:16">
+    <row r="88" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H88" s="2" t="s">
         <v>14</v>
       </c>
@@ -12942,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="8:16">
+    <row r="89" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H89" s="2" t="s">
         <v>3</v>
       </c>
@@ -12974,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="8:16">
+    <row r="90" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H90" s="2" t="s">
         <v>14</v>
       </c>
@@ -13006,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="8:16">
+    <row r="91" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H91" s="2" t="s">
         <v>14</v>
       </c>
@@ -13038,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="8:16">
+    <row r="92" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H92" s="2" t="s">
         <v>3</v>
       </c>
@@ -13070,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="8:16">
+    <row r="93" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H93" s="2" t="s">
         <v>14</v>
       </c>
@@ -13102,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="8:16">
+    <row r="94" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H94" s="2" t="s">
         <v>14</v>
       </c>
@@ -13134,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="8:16">
+    <row r="95" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H95" s="2" t="s">
         <v>14</v>
       </c>
@@ -13166,7 +15632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="8:16">
+    <row r="96" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H96" s="2" t="s">
         <v>3</v>
       </c>
@@ -13198,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="8:16">
+    <row r="97" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H97" s="2" t="s">
         <v>14</v>
       </c>
@@ -13230,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="8:16">
+    <row r="98" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H98" s="2" t="s">
         <v>14</v>
       </c>
@@ -13262,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="8:16">
+    <row r="99" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H99" s="2" t="s">
         <v>14</v>
       </c>
@@ -13294,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="8:16">
+    <row r="100" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H100" s="2" t="s">
         <v>14</v>
       </c>
@@ -13326,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="8:16">
+    <row r="101" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H101" s="2" t="s">
         <v>14</v>
       </c>
@@ -13358,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="8:16">
+    <row r="102" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H102" s="2" t="s">
         <v>3</v>
       </c>
@@ -13390,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="8:16">
+    <row r="103" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H103" s="2" t="s">
         <v>14</v>
       </c>
@@ -13422,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="8:16">
+    <row r="104" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H104" s="2" t="s">
         <v>3</v>
       </c>
@@ -13454,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="8:16">
+    <row r="105" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H105" s="2" t="s">
         <v>3</v>
       </c>
@@ -13486,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="8:16">
+    <row r="106" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H106" s="2" t="s">
         <v>14</v>
       </c>
@@ -13518,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="8:16">
+    <row r="107" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H107" s="2" t="s">
         <v>14</v>
       </c>
@@ -13550,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="8:16">
+    <row r="108" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H108" s="2" t="s">
         <v>14</v>
       </c>
@@ -13582,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="8:16">
+    <row r="109" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H109" s="2" t="s">
         <v>14</v>
       </c>
@@ -13614,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="8:16">
+    <row r="110" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H110" s="2" t="s">
         <v>3</v>
       </c>
@@ -13646,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="8:16">
+    <row r="111" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H111" s="2" t="s">
         <v>14</v>
       </c>
@@ -13678,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="8:16">
+    <row r="112" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H112" s="2" t="s">
         <v>3</v>
       </c>
@@ -13710,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="8:16">
+    <row r="113" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H113" s="2" t="s">
         <v>3</v>
       </c>
@@ -13742,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="8:16">
+    <row r="114" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H114" s="2" t="s">
         <v>14</v>
       </c>
@@ -13774,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="8:16">
+    <row r="115" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H115" s="2" t="s">
         <v>14</v>
       </c>
@@ -13806,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="8:16">
+    <row r="116" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H116" s="2" t="s">
         <v>3</v>
       </c>
@@ -13838,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="8:16">
+    <row r="117" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H117" s="2" t="s">
         <v>14</v>
       </c>
@@ -13870,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="8:16">
+    <row r="118" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H118" s="2" t="s">
         <v>14</v>
       </c>
@@ -13902,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="8:16">
+    <row r="119" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H119" s="2" t="s">
         <v>3</v>
       </c>
@@ -13934,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="8:16">
+    <row r="120" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H120" s="2" t="s">
         <v>14</v>
       </c>
@@ -13966,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="8:16">
+    <row r="121" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H121" s="2" t="s">
         <v>3</v>
       </c>
@@ -13998,7 +16464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="8:16">
+    <row r="122" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H122" s="2" t="s">
         <v>14</v>
       </c>
@@ -14030,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="8:16">
+    <row r="123" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H123" s="2" t="s">
         <v>14</v>
       </c>
@@ -14062,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="8:16">
+    <row r="124" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H124" s="2" t="s">
         <v>14</v>
       </c>
@@ -14094,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="8:16">
+    <row r="125" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H125" s="2" t="s">
         <v>3</v>
       </c>
@@ -14126,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="8:16">
+    <row r="126" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H126" s="2" t="s">
         <v>14</v>
       </c>
@@ -14158,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="8:16">
+    <row r="127" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H127" s="2" t="s">
         <v>14</v>
       </c>
@@ -14190,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="8:16">
+    <row r="128" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H128" s="2" t="s">
         <v>14</v>
       </c>
@@ -14222,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="8:16">
+    <row r="129" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H129" s="2" t="s">
         <v>14</v>
       </c>
@@ -14254,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="8:16">
+    <row r="130" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H130" s="2" t="s">
         <v>14</v>
       </c>
@@ -14286,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="8:16">
+    <row r="131" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H131" s="2" t="s">
         <v>3</v>
       </c>
@@ -14318,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="8:16">
+    <row r="132" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H132" s="2" t="s">
         <v>14</v>
       </c>
@@ -14350,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="8:16">
+    <row r="133" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H133" s="2" t="s">
         <v>14</v>
       </c>
@@ -14382,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="8:16">
+    <row r="134" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H134" s="2" t="s">
         <v>14</v>
       </c>
@@ -14414,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="8:16">
+    <row r="135" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H135" s="2" t="s">
         <v>3</v>
       </c>
@@ -14446,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="8:16">
+    <row r="136" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H136" s="2" t="s">
         <v>14</v>
       </c>
@@ -14478,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="8:16">
+    <row r="137" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H137" s="2" t="s">
         <v>14</v>
       </c>
@@ -14510,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="8:16">
+    <row r="138" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H138" s="2" t="s">
         <v>14</v>
       </c>
@@ -14542,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="8:16">
+    <row r="139" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H139" s="2" t="s">
         <v>3</v>
       </c>
@@ -14574,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="8:16">
+    <row r="140" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H140" s="2" t="s">
         <v>14</v>
       </c>
@@ -14606,7 +17072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="8:16">
+    <row r="141" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H141" s="2" t="s">
         <v>14</v>
       </c>
@@ -14638,7 +17104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="8:16">
+    <row r="142" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H142" s="2" t="s">
         <v>14</v>
       </c>
@@ -14670,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="8:16">
+    <row r="143" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H143" s="2" t="s">
         <v>3</v>
       </c>
@@ -14702,7 +17168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="8:16">
+    <row r="144" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H144" s="2" t="s">
         <v>14</v>
       </c>
@@ -14734,7 +17200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="8:16">
+    <row r="145" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H145" s="2" t="s">
         <v>14</v>
       </c>
@@ -14766,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="8:16">
+    <row r="146" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H146" s="2" t="s">
         <v>14</v>
       </c>
@@ -14798,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="8:16">
+    <row r="147" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H147" s="2" t="s">
         <v>3</v>
       </c>
@@ -14830,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="8:16">
+    <row r="148" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H148" s="2" t="s">
         <v>14</v>
       </c>
@@ -14862,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="8:16">
+    <row r="149" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H149" s="2" t="s">
         <v>14</v>
       </c>
@@ -14894,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="8:16">
+    <row r="150" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H150" s="2" t="s">
         <v>3</v>
       </c>
@@ -14926,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="8:16">
+    <row r="151" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H151" s="2" t="s">
         <v>3</v>
       </c>
@@ -14958,7 +17424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="8:16">
+    <row r="152" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H152" s="2" t="s">
         <v>14</v>
       </c>
@@ -14990,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="8:16">
+    <row r="153" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H153" s="2" t="s">
         <v>14</v>
       </c>
@@ -15022,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="8:16">
+    <row r="154" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H154" s="2" t="s">
         <v>14</v>
       </c>
@@ -15054,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="8:16">
+    <row r="155" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H155" s="2" t="s">
         <v>14</v>
       </c>
@@ -15086,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="8:16">
+    <row r="156" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H156" s="2" t="s">
         <v>3</v>
       </c>
@@ -15118,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="8:16">
+    <row r="157" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H157" s="2" t="s">
         <v>14</v>
       </c>
@@ -15150,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="8:16">
+    <row r="158" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H158" s="2" t="s">
         <v>14</v>
       </c>
@@ -15182,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="8:16">
+    <row r="159" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H159" s="2" t="s">
         <v>3</v>
       </c>
@@ -15214,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="8:16">
+    <row r="160" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H160" s="2" t="s">
         <v>3</v>
       </c>
@@ -15246,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="8:16">
+    <row r="161" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H161" s="2" t="s">
         <v>14</v>
       </c>
@@ -15278,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="8:16">
+    <row r="162" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H162" s="2" t="s">
         <v>14</v>
       </c>
@@ -15310,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="8:16">
+    <row r="163" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H163" s="2" t="s">
         <v>14</v>
       </c>
@@ -15342,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="8:16">
+    <row r="164" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H164" s="2" t="s">
         <v>3</v>
       </c>
@@ -15374,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="8:16">
+    <row r="165" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H165" s="2" t="s">
         <v>3</v>
       </c>
@@ -15406,7 +17872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="8:16">
+    <row r="166" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H166" s="2" t="s">
         <v>3</v>
       </c>
@@ -15438,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="8:16">
+    <row r="167" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H167" s="2" t="s">
         <v>14</v>
       </c>
@@ -15470,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="8:16">
+    <row r="168" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H168" s="2" t="s">
         <v>14</v>
       </c>
@@ -15502,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="8:16">
+    <row r="169" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H169" s="2" t="s">
         <v>14</v>
       </c>
@@ -15534,7 +18000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="8:16">
+    <row r="170" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H170" s="2" t="s">
         <v>3</v>
       </c>
@@ -15566,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="8:16">
+    <row r="171" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H171" s="2" t="s">
         <v>14</v>
       </c>
@@ -15598,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="8:16">
+    <row r="172" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H172" s="2" t="s">
         <v>3</v>
       </c>
@@ -15630,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="8:16">
+    <row r="173" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H173" s="2" t="s">
         <v>14</v>
       </c>
@@ -15662,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="8:16">
+    <row r="174" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H174" s="2" t="s">
         <v>3</v>
       </c>
@@ -15694,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="8:16">
+    <row r="175" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H175" s="2" t="s">
         <v>14</v>
       </c>
@@ -15726,7 +18192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="8:16">
+    <row r="176" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H176" s="2" t="s">
         <v>14</v>
       </c>
@@ -15758,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="8:16">
+    <row r="177" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H177" s="2" t="s">
         <v>14</v>
       </c>
@@ -15790,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="8:16">
+    <row r="178" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H178" s="2" t="s">
         <v>3</v>
       </c>
@@ -15822,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="8:16">
+    <row r="179" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H179" s="2" t="s">
         <v>3</v>
       </c>
@@ -15854,7 +18320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="8:16">
+    <row r="180" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H180" s="2" t="s">
         <v>3</v>
       </c>
@@ -15886,7 +18352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="8:16">
+    <row r="181" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H181" s="2" t="s">
         <v>14</v>
       </c>
@@ -15918,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="8:16">
+    <row r="182" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H182" s="2" t="s">
         <v>3</v>
       </c>
@@ -15950,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="8:16">
+    <row r="183" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H183" s="2" t="s">
         <v>14</v>
       </c>
@@ -15982,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="8:16">
+    <row r="184" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H184" s="2" t="s">
         <v>14</v>
       </c>
@@ -16014,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="8:16">
+    <row r="185" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H185" s="2" t="s">
         <v>14</v>
       </c>
@@ -16046,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="8:16">
+    <row r="186" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H186" s="2" t="s">
         <v>14</v>
       </c>
@@ -16078,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="8:16">
+    <row r="187" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H187" s="2" t="s">
         <v>14</v>
       </c>
@@ -16110,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="8:16">
+    <row r="188" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H188" s="2" t="s">
         <v>3</v>
       </c>
@@ -16142,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="8:16">
+    <row r="189" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H189" s="2" t="s">
         <v>3</v>
       </c>
@@ -16174,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="8:16">
+    <row r="190" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H190" s="2" t="s">
         <v>3</v>
       </c>
@@ -16206,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="8:16">
+    <row r="191" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H191" s="2" t="s">
         <v>14</v>
       </c>
@@ -16238,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="8:16">
+    <row r="192" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H192" s="2" t="s">
         <v>3</v>
       </c>
@@ -16270,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="8:16">
+    <row r="193" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H193" s="2" t="s">
         <v>14</v>
       </c>
@@ -16302,7 +18768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="8:16">
+    <row r="194" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H194" s="2" t="s">
         <v>14</v>
       </c>
@@ -16334,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="8:16">
+    <row r="195" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H195" s="2" t="s">
         <v>3</v>
       </c>
@@ -16366,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="8:16">
+    <row r="196" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H196" s="2" t="s">
         <v>14</v>
       </c>
@@ -16398,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="8:16">
+    <row r="197" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H197" s="2" t="s">
         <v>14</v>
       </c>
@@ -16430,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="8:16">
+    <row r="198" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H198" s="2" t="s">
         <v>3</v>
       </c>
@@ -16462,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="8:16">
+    <row r="199" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H199" s="2" t="s">
         <v>14</v>
       </c>
@@ -16494,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="8:16">
+    <row r="200" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H200" s="2" t="s">
         <v>14</v>
       </c>
@@ -16526,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="8:16">
+    <row r="201" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H201" s="2" t="s">
         <v>3</v>
       </c>
@@ -16567,8 +19033,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C1:R26"/>
   <sheetViews>
@@ -16576,7 +19042,7 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
@@ -16584,22 +19050,22 @@
     <col min="18" max="18" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18">
+    <row r="1" spans="3:18" x14ac:dyDescent="0.25">
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="3:18">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="3:18">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="3:18">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
@@ -16613,7 +19079,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="3:18" ht="18.75">
+    <row r="5" spans="3:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>7</v>
       </c>
@@ -16628,16 +19094,16 @@
         <v>64</v>
       </c>
       <c r="J5" s="25"/>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="O5" s="33" t="s">
+      <c r="M5" s="38"/>
+      <c r="O5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="3:18" ht="18.75">
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>8</v>
       </c>
@@ -16667,7 +19133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:18" ht="18.75">
+    <row r="7" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>9</v>
       </c>
@@ -16697,7 +19163,7 @@
         <v>2.2197460952263723</v>
       </c>
     </row>
-    <row r="8" spans="3:18" ht="18.75">
+    <row r="8" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>10</v>
       </c>
@@ -16727,7 +19193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:18" ht="18.75">
+    <row r="9" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>10</v>
       </c>
@@ -16756,7 +19222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:18" ht="18.75">
+    <row r="10" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>11</v>
       </c>
@@ -16785,7 +19251,7 @@
         <v>7.3620649277223844</v>
       </c>
     </row>
-    <row r="11" spans="3:18" ht="18.75">
+    <row r="11" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>11</v>
       </c>
@@ -16814,7 +19280,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="12" spans="3:18" ht="18.75">
+    <row r="12" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>9</v>
       </c>
@@ -16843,7 +19309,7 @@
         <v>6.1495622336297187</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="18.75">
+    <row r="13" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>12</v>
       </c>
@@ -16875,7 +19341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="3:18" ht="18.75">
+    <row r="14" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>13</v>
       </c>
@@ -16904,7 +19370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="3:18" ht="18.75">
+    <row r="15" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
@@ -16929,7 +19395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:18" ht="18.75">
+    <row r="16" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I16" s="22" t="s">
         <v>40</v>
       </c>
@@ -16949,7 +19415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="9:18" ht="18.75">
+    <row r="17" spans="9:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I17" s="22" t="s">
         <v>41</v>
       </c>
@@ -16969,7 +19435,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="9:18" ht="18.75">
+    <row r="18" spans="9:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I18" s="22" t="s">
         <v>42</v>
       </c>
@@ -16989,48 +19455,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="9:18">
-      <c r="I21" s="34" t="s">
+    <row r="21" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I21" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="9:18">
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="9:18">
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="9:18" ht="15" customHeight="1">
-      <c r="N24" s="34" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="9:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-    </row>
-    <row r="25" spans="9:18">
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="9:18">
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17044,486 +19510,620 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q1787"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L11"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" activeCol="9" previousRow="2" previousCol="9" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3310</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3355</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <f>MIN($B$2:$B$17)</f>
+        <v>3220</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="K3" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3450</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.QUARTILE.INC($B$2:$B$17,)</f>
+        <v>3220</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="J4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3480</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.QUARTILE.INC($B$2:$B$17,)</f>
+        <v>3220</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="35">
+        <v>3533.4375</v>
+      </c>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="42">
+        <v>2</v>
+      </c>
+      <c r="L5" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3480</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.QUARTILE.INC($B$2:$B$17,)</f>
+        <v>3220</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="35">
+        <v>38.282716808633111</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="42">
+        <v>1</v>
+      </c>
+      <c r="L6" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3490</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <f>MAX($B$2:$B$17)</f>
+        <v>3730</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="35">
+        <v>3530</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="42">
+        <v>4</v>
+      </c>
+      <c r="L7" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3520</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <f>MEDIAN($B$2:$B$17)</f>
+        <v>3530</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="35">
+        <v>3650</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="42">
+        <v>3</v>
+      </c>
+      <c r="L8" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3540</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE($B$2:$B$17)</f>
+        <v>3533.4375</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="35">
+        <v>153.13086723453245</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="42">
+        <v>3</v>
+      </c>
+      <c r="L9" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3550</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <f>MODE($B$2:$B$17)</f>
+        <v>3650</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="35">
+        <v>23449.0625</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="42">
+        <v>3</v>
+      </c>
+      <c r="L10" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3650</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11">
+        <f>E7-E3</f>
+        <v>510</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="35">
+        <v>-0.40035863871694799</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="42">
+        <v>16</v>
+      </c>
+      <c r="L11" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3730</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12">
+        <f>STDEV($B$2:$B$17)</f>
+        <v>153.13086723453245</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="35">
+        <v>-0.44686573124230095</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3650</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.PERCENTILE.INC($B$2:$B$17,0.85)</f>
+        <v>3710</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3730</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="35">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3650</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="35">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3730</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="35">
+        <v>56535</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3220</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="31"/>
+      <c r="N31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+    </row>
+    <row r="34" spans="14:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+    </row>
+    <row r="1787" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L1787" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="36">
-        <v>3310</v>
-      </c>
-      <c r="B2" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="36">
-        <v>3450</v>
-      </c>
-      <c r="B3" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="36">
-        <v>3590</v>
-      </c>
-      <c r="B4" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="37">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q34"/>
-  <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4">
-        <v>3355</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4">
-        <f>MIN(B3:B13)</f>
-        <v>3310</v>
-      </c>
-      <c r="M4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5">
-        <v>3450</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5">
-        <v>40</v>
-      </c>
-      <c r="N5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6">
-        <v>3480</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6">
-        <v>20</v>
-      </c>
-      <c r="N6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7">
-        <v>3480</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="42">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="42">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="42">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="42">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">E5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="42">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="42">
         <v>5</v>
       </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8">
-        <v>3490</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9">
-        <v>3520</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10">
-        <v>3540</v>
-      </c>
-      <c r="M10">
-        <v>75</v>
-      </c>
-      <c r="N10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11">
-        <v>3550</v>
-      </c>
-      <c r="M11">
-        <v>100</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12">
-        <v>3650</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-      <c r="N12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13">
-        <v>3730</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13">
-        <v>15</v>
-      </c>
-      <c r="N13">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="M15">
-        <v>17</v>
-      </c>
-      <c r="N15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="M16">
-        <v>11</v>
-      </c>
-      <c r="N16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="13:17">
-      <c r="M17">
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="13:17" ht="15.75" thickBot="1"/>
-    <row r="20" spans="13:17">
-      <c r="M20" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="39"/>
-    </row>
-    <row r="21" spans="13:17">
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-    </row>
-    <row r="22" spans="13:17">
-      <c r="M22" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="36">
-        <v>27.153846153846153</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="36">
-        <v>26.76923076923077</v>
-      </c>
-    </row>
-    <row r="23" spans="13:17">
-      <c r="M23" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="36">
-        <v>7.9460086366953995</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="36">
-        <v>6.8398847701287373</v>
-      </c>
-    </row>
-    <row r="24" spans="13:17">
-      <c r="M24" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="36">
-        <v>17</v>
-      </c>
-      <c r="P24" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="13:17">
-      <c r="M25" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="36">
-        <v>20</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="13:17">
-      <c r="M26" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="36">
-        <v>28.64974157488497</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="36">
-        <v>24.661555256964384</v>
-      </c>
-    </row>
-    <row r="27" spans="13:17">
-      <c r="M27" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" s="36">
-        <v>820.80769230769238</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="36">
-        <v>608.19230769230762</v>
-      </c>
-    </row>
-    <row r="28" spans="13:17">
-      <c r="M28" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" s="36">
-        <v>3.0566760832058617</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="36">
-        <v>8.1736478571512823</v>
-      </c>
-    </row>
-    <row r="29" spans="13:17">
-      <c r="M29" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="36">
-        <v>1.9326388771991554</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="36">
-        <v>2.6653660916959874</v>
-      </c>
-    </row>
-    <row r="30" spans="13:17">
-      <c r="M30" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" s="36">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="42">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="42">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>95</v>
       </c>
-      <c r="P30" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="36">
+      <c r="B8" s="42">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="13:17">
-      <c r="M31" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" s="36">
-        <v>5</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="13:17">
-      <c r="M32" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="36">
-        <v>100</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="36">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="13:17">
-      <c r="M33" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" s="36">
-        <v>353</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q33" s="36">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="13:17" ht="15.75" thickBot="1">
-      <c r="M34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="37">
-        <v>13</v>
-      </c>
-      <c r="P34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="37">
-        <v>13</v>
+      <c r="E8" s="42">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="42">
+        <v>16</v>
+      </c>
+      <c r="E9" s="42">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="42">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="42">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/STASTICS/ASSIGNMENTS/data_sales-WORKED.xlsx
+++ b/STASTICS/ASSIGNMENTS/data_sales-WORKED.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="exe-1" sheetId="1" r:id="rId1"/>
     <sheet name="EXE-1.1" sheetId="5" r:id="rId2"/>
     <sheet name="EXE-PLYR-SLCTN" sheetId="2" r:id="rId3"/>
     <sheet name="BOX-PLOT" sheetId="6" r:id="rId4"/>
-    <sheet name="HISTOGRAM" sheetId="7" r:id="rId5"/>
+    <sheet name="CLT" sheetId="8" r:id="rId5"/>
+    <sheet name="HISTOGRAM" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'exe-1'!$K$1:$K$201</definedName>
@@ -24,7 +25,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="120">
   <si>
     <t>No.</t>
   </si>
@@ -344,10 +345,67 @@
     <t>SCORE</t>
   </si>
   <si>
-    <t>COUNT</t>
+    <t>MEMBERS</t>
   </si>
   <si>
-    <t>MEMBERS</t>
+    <t>standardize</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>3720-3820</t>
+  </si>
+  <si>
+    <t>3720-3821</t>
+  </si>
+  <si>
+    <t>3720-3822</t>
+  </si>
+  <si>
+    <t>3720-3823</t>
+  </si>
+  <si>
+    <t>3720-3824</t>
+  </si>
+  <si>
+    <t>3720-3825</t>
+  </si>
+  <si>
+    <t>3720-3826</t>
+  </si>
+  <si>
+    <t>3720-3827</t>
+  </si>
+  <si>
+    <t>3720-3828</t>
+  </si>
+  <si>
+    <t>3720-3829</t>
+  </si>
+  <si>
+    <t>3720-3830</t>
+  </si>
+  <si>
+    <t>3720-3831</t>
+  </si>
+  <si>
+    <t>3720-3832</t>
+  </si>
+  <si>
+    <t>3720-3833</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Cumulative %</t>
   </si>
 </sst>
 </file>
@@ -549,7 +607,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -614,6 +672,11 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,11 +695,12 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -759,11 +823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-271221488"/>
-        <c:axId val="-271223120"/>
+        <c:axId val="-67347264"/>
+        <c:axId val="-67338560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-271221488"/>
+        <c:axId val="-67347264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271223120"/>
+        <c:crossAx val="-67338560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271223120"/>
+        <c:axId val="-67338560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271221488"/>
+        <c:crossAx val="-67347264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -818,6 +882,1249 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$G$50:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$H$50:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2132232880"/>
+        <c:axId val="-2132243216"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cumulative %</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$G$50:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$I$50:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2057424032"/>
+        <c:axId val="-2057430016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2132232880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132243216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2132243216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132232880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2057430016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2057424032"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2057424032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2057430016"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$G$56:$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$H$56:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2057421856"/>
+        <c:axId val="-2057436000"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cumulative %</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$G$56:$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$I$56:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2124513184"/>
+        <c:axId val="-2124509920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2057421856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2057436000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2057436000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2057421856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124509920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124513184"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2124513184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124509920"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HISTOGRAM!$H$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$H$56:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2053627056"/>
+        <c:axId val="-2053626512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2053627056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2053626512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2053626512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2053627056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.037860892388452E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.88740879265091865"/>
+          <c:h val="0.6073417906095071"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HISTOGRAM!$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FREQUENCY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$C$49:$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3320-3419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3420-3519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3520-3619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3620-3719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3720-3819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3720-3820</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3720-3821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3720-3822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3720-3823</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3720-3824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3720-3825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3720-3826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3720-3827</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3720-3828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3720-3829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3720-3830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3720-3831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3720-3832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3720-3833</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$D$49:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2138632208"/>
+        <c:axId val="-2138631664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2138632208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2138631664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2138631664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2138632208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -925,11 +2232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-271220400"/>
-        <c:axId val="-271220944"/>
+        <c:axId val="-67351072"/>
+        <c:axId val="-67342368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-271220400"/>
+        <c:axId val="-67351072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +2246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271220944"/>
+        <c:crossAx val="-67342368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -947,7 +2254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271220944"/>
+        <c:axId val="-67342368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +2265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271220400"/>
+        <c:crossAx val="-67351072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1157,11 +2464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-271224752"/>
-        <c:axId val="-271215504"/>
+        <c:axId val="-67347808"/>
+        <c:axId val="-67346720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-271224752"/>
+        <c:axId val="-67347808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +2478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271215504"/>
+        <c:crossAx val="-67346720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1179,7 +2486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271215504"/>
+        <c:axId val="-67346720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,13 +2497,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271224752"/>
+        <c:crossAx val="-67347808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1226,6 +2534,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1299,11 +2608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-271213872"/>
-        <c:axId val="-271211696"/>
+        <c:axId val="-61072480"/>
+        <c:axId val="-61069216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-271213872"/>
+        <c:axId val="-61072480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +2621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271211696"/>
+        <c:crossAx val="-61069216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +2629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-271211696"/>
+        <c:axId val="-61069216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,13 +2640,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271213872"/>
+        <c:crossAx val="-61072480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1367,6 +2677,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1440,11 +2751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-271225296"/>
-        <c:axId val="-268865136"/>
+        <c:axId val="-61071392"/>
+        <c:axId val="-61061600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-271225296"/>
+        <c:axId val="-61071392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +2764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-268865136"/>
+        <c:crossAx val="-61061600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1461,7 +2772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-268865136"/>
+        <c:axId val="-61061600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,13 +2783,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-271225296"/>
+        <c:crossAx val="-61071392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1508,6 +2820,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1584,11 +2897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-268857520"/>
-        <c:axId val="-268861872"/>
+        <c:axId val="-61070848"/>
+        <c:axId val="-61067584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-268857520"/>
+        <c:axId val="-61070848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +2910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-268861872"/>
+        <c:crossAx val="-61067584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +2918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-268861872"/>
+        <c:axId val="-61067584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,13 +2929,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-268857520"/>
+        <c:crossAx val="-61070848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1870,11 +3184,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-115966224"/>
-        <c:axId val="-115963504"/>
+        <c:axId val="-61065408"/>
+        <c:axId val="-61062688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-115966224"/>
+        <c:axId val="-61065408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +3231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-115963504"/>
+        <c:crossAx val="-61062688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1925,7 +3239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-115963504"/>
+        <c:axId val="-61062688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +3290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-115966224"/>
+        <c:crossAx val="-61065408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2108,7 +3422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COUNT</c:v>
+                  <c:v>FREQUENCY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2167,15 +3481,6 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2189,8 +3494,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-40915568"/>
-        <c:axId val="-40918288"/>
+        <c:axId val="-61064864"/>
+        <c:axId val="-61060512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2265,15 +3570,6 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2289,11 +3585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-40915568"/>
-        <c:axId val="-40918288"/>
+        <c:axId val="-61064864"/>
+        <c:axId val="-61060512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-40915568"/>
+        <c:axId val="-61064864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +3632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40918288"/>
+        <c:crossAx val="-61060512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2344,7 +3640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-40918288"/>
+        <c:axId val="-61060512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +3691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40915568"/>
+        <c:crossAx val="-61064864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,6 +3772,526 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HISTOGRAM!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FREQUENCY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HISTOGRAM!$C$27:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3320-3419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3420-3519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3520-3619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3620-3719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3720-3819</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HISTOGRAM!$D$27:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2124508288"/>
+        <c:axId val="-67340736"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HISTOGRAM!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEMBERS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>HISTOGRAM!$C$27:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3320-3419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3420-3519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3520-3619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3620-3719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3720-3819</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HISTOGRAM!$E$27:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2057425664"/>
+        <c:axId val="-2124511008"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="-2124508288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-67340736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-67340736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124508288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124511008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057425664"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2057425664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124511008"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="5000"/>
+              <a:lumOff val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="30000"/>
+              <a:lumOff val="70000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2517,6 +4333,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3562,6 +5498,1550 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3986,6 +7466,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41462</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38659</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>146797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>818030</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4086,7 +7716,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="J3:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
@@ -4174,7 +7804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="A1:B9" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0">
@@ -4552,7 +8182,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -5031,13 +8661,13 @@
         <f t="shared" si="0"/>
         <v>20-30</v>
       </c>
-      <c r="R10" s="36" t="s">
+      <c r="R10" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -5562,13 +9192,13 @@
       <c r="Q20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V20" s="36" t="s">
+      <c r="V20" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
       <c r="AA20" s="13"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -13283,13 +16913,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
     </row>
     <row r="23" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
@@ -13322,11 +16952,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
     </row>
     <row r="24" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
@@ -19094,14 +22724,14 @@
         <v>64</v>
       </c>
       <c r="J5" s="25"/>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="O5" s="39" t="s">
+      <c r="M5" s="41"/>
+      <c r="O5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="39"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
@@ -19456,47 +23086,47 @@
       </c>
     </row>
     <row r="21" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="9:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
     </row>
     <row r="25" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -19514,17 +23144,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1787"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L11"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" activeCol="9" previousRow="2" previousCol="9" click="1" r:id="rId1">
-        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
@@ -19534,19 +23162,23 @@
     <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>3310</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="M2">
+        <f>((6*$H$9)/100)</f>
+        <v>9.1878520340719465</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3355</v>
       </c>
@@ -19561,11 +23193,14 @@
         <v>72</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3450</v>
       </c>
@@ -19578,7 +23213,7 @@
       </c>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="37" t="s">
         <v>70</v>
       </c>
       <c r="K4" t="s">
@@ -19587,8 +23222,23 @@
       <c r="L4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3310</v>
+      </c>
+      <c r="O4">
+        <f>N4+$M$2</f>
+        <v>3319.187852034072</v>
+      </c>
+      <c r="P4">
+        <f>STANDARDIZE(O4,$H$5,$H$9)</f>
+        <v>-1.3991277646053371</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.NORM.DIST(N4,H5,H9,0)</f>
+        <v>8.9852291618997373E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3480</v>
       </c>
@@ -19608,14 +23258,25 @@
       <c r="J5" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="36">
         <v>2</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="36">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>3355</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O19" si="0">N5+$M$2</f>
+        <v>3364.187852034072</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P19" si="1">STANDARDIZE(O5,$H$5,$H$9)</f>
+        <v>-1.1052614735519544</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3480</v>
       </c>
@@ -19635,14 +23296,25 @@
       <c r="J6" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="36">
         <v>1</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>3450</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>3459.187852034072</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>-0.48487708132814678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3490</v>
       </c>
@@ -19662,14 +23334,25 @@
       <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="36">
         <v>4</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>3480</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>3489.187852034072</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-0.28896622062589172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3520</v>
       </c>
@@ -19689,14 +23372,25 @@
       <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="36">
         <v>3</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>3480</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>3489.187852034072</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>-0.28896622062589172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3540</v>
       </c>
@@ -19716,14 +23410,25 @@
       <c r="J9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="36">
         <v>3</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>3490</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>3499.187852034072</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-0.22366260039180669</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3550</v>
       </c>
@@ -19743,14 +23448,25 @@
       <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="36">
         <v>3</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>3520</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>3529.187852034072</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>-2.7751739689551622E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3650</v>
       </c>
@@ -19770,14 +23486,25 @@
       <c r="J11" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="36">
         <v>16</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="36">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>3540</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>3549.187852034072</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.10285550077861842</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3730</v>
       </c>
@@ -19794,8 +23521,19 @@
       <c r="H12" s="35">
         <v>-0.44686573124230095</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>3550</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>3559.187852034072</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0.16815912101270344</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3650</v>
       </c>
@@ -19812,8 +23550,19 @@
       <c r="H13" s="35">
         <v>510</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>3650</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>3659.187852034072</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0.82119532335355361</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3730</v>
       </c>
@@ -19823,8 +23572,19 @@
       <c r="H14" s="35">
         <v>3220</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>3730</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>3739.187852034072</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1.3436242852262339</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3650</v>
       </c>
@@ -19834,8 +23594,19 @@
       <c r="H15" s="35">
         <v>3730</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>3650</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>3659.187852034072</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0.82119532335355361</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3730</v>
       </c>
@@ -19844,6 +23615,17 @@
       </c>
       <c r="H16" s="35">
         <v>56535</v>
+      </c>
+      <c r="N16">
+        <v>3730</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>3739.187852034072</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>1.3436242852262339</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -19856,8 +23638,44 @@
       <c r="H17" s="35">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="N17">
+        <v>3650</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>3659.187852034072</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0.82119532335355361</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>3730</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>3739.187852034072</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1.3436242852262339</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>3220</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>3229.187852034072</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-1.9868603467121022</v>
+      </c>
+    </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
@@ -19954,10 +23772,161 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>75</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>75000</v>
+      </c>
+      <c r="E1">
+        <f>AVERAGE(C1:C11)</f>
+        <v>56090.909090909088</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C11" si="0">A2*B2</f>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19967,15 +23936,16 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
@@ -19986,30 +23956,30 @@
       <c r="A3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="36">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>98</v>
       </c>
       <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
         <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="36">
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="36">
         <v>1</v>
       </c>
       <c r="F4">
@@ -20021,17 +23991,17 @@
       <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="36">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="36">
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F11" si="0">E5</f>
+        <f t="shared" ref="F5:F8" si="0">E5</f>
         <v>4</v>
       </c>
     </row>
@@ -20039,13 +24009,13 @@
       <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="36">
         <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="36">
         <v>5</v>
       </c>
       <c r="F6">
@@ -20057,13 +24027,13 @@
       <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="36">
         <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="36">
         <v>4</v>
       </c>
       <c r="F7">
@@ -20075,13 +24045,13 @@
       <c r="A8" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="36">
         <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="36">
         <v>3</v>
       </c>
       <c r="F8">
@@ -20093,37 +24063,368 @@
       <c r="A9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="36">
         <v>16</v>
       </c>
-      <c r="E9" s="42">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="42">
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="36"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="36">
         <v>1</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="E27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="36">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="36">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="36">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="36">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="47"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="42">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G49" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="36">
+        <v>4</v>
+      </c>
+      <c r="G50" s="30">
+        <v>3</v>
+      </c>
+      <c r="H50" s="30">
+        <v>4</v>
+      </c>
+      <c r="I50" s="46">
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="36">
+        <v>5</v>
+      </c>
+      <c r="G51" s="30">
+        <v>4</v>
+      </c>
+      <c r="H51" s="30">
+        <v>0</v>
+      </c>
+      <c r="I51" s="46">
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="36">
+        <v>4</v>
+      </c>
+      <c r="G52" s="30">
+        <v>5</v>
+      </c>
+      <c r="H52" s="30">
+        <v>5</v>
+      </c>
+      <c r="I52" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="36">
+        <v>3</v>
+      </c>
+      <c r="G53" s="30">
+        <v>6</v>
+      </c>
+      <c r="H53" s="30">
+        <v>6</v>
+      </c>
+      <c r="I53" s="46">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="36">
+        <v>3</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="31">
+        <v>3</v>
+      </c>
+      <c r="I54" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="36">
+        <v>3</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="36">
+        <v>3</v>
+      </c>
+      <c r="G56" s="48">
+        <v>3</v>
+      </c>
+      <c r="H56" s="30">
+        <v>4</v>
+      </c>
+      <c r="I56" s="46">
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="36">
+        <v>4</v>
+      </c>
+      <c r="G57" s="48">
+        <v>4</v>
+      </c>
+      <c r="H57" s="30">
+        <v>5</v>
+      </c>
+      <c r="I57" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="36">
+        <v>5</v>
+      </c>
+      <c r="G58" s="48">
+        <v>5</v>
+      </c>
+      <c r="H58" s="30">
+        <v>6</v>
+      </c>
+      <c r="I58" s="46">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="36">
+        <v>6</v>
+      </c>
+      <c r="G59" s="48">
+        <v>6</v>
+      </c>
+      <c r="H59" s="30">
+        <v>3</v>
+      </c>
+      <c r="I59" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="36">
+        <v>5</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="31">
+        <v>0</v>
+      </c>
+      <c r="I60" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="36"/>
     </row>
   </sheetData>
+  <sortState ref="G56:G59">
+    <sortCondition ref="G56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>